--- a/SchedulingData/dynamic13/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_19.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>69.56</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>27.184</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.3</v>
+        <v>42.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.56</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68.81999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E4" t="n">
-        <v>25.788</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.56</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>121.9</v>
+        <v>62.94</v>
       </c>
       <c r="E5" t="n">
-        <v>24.06</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="6">
@@ -542,33 +542,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>121.9</v>
+        <v>62.94</v>
       </c>
       <c r="D6" t="n">
-        <v>189.5</v>
+        <v>114.54</v>
       </c>
       <c r="E6" t="n">
-        <v>19.9</v>
+        <v>23.336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.3</v>
+        <v>42.2</v>
       </c>
       <c r="D7" t="n">
-        <v>135.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>22.7</v>
@@ -576,154 +576,154 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>26.48</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>135.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>205.4</v>
+        <v>143.54</v>
       </c>
       <c r="E9" t="n">
-        <v>18.86</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>114.54</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3</v>
+        <v>155.8</v>
       </c>
       <c r="E10" t="n">
-        <v>27.14</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>205.4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>245.4</v>
+        <v>77.3</v>
       </c>
       <c r="E11" t="n">
-        <v>15.5</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42.2</v>
+        <v>75.2</v>
       </c>
       <c r="D12" t="n">
-        <v>93.90000000000001</v>
+        <v>141.56</v>
       </c>
       <c r="E12" t="n">
-        <v>23.44</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>189.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>227.58</v>
+        <v>141</v>
       </c>
       <c r="E13" t="n">
-        <v>16.732</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>93.90000000000001</v>
+        <v>143.54</v>
       </c>
       <c r="D14" t="n">
-        <v>144.74</v>
+        <v>195.64</v>
       </c>
       <c r="E14" t="n">
-        <v>20.476</v>
+        <v>18.796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>68.81999999999999</v>
+        <v>141.56</v>
       </c>
       <c r="D15" t="n">
-        <v>130.82</v>
+        <v>204.68</v>
       </c>
       <c r="E15" t="n">
-        <v>22.188</v>
+        <v>19.392</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144.74</v>
+        <v>141</v>
       </c>
       <c r="D16" t="n">
-        <v>185.22</v>
+        <v>204.36</v>
       </c>
       <c r="E16" t="n">
-        <v>17.068</v>
+        <v>16.144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55.3</v>
+        <v>77.3</v>
       </c>
       <c r="D17" t="n">
-        <v>125.04</v>
+        <v>128.26</v>
       </c>
       <c r="E17" t="n">
-        <v>23.276</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>227.58</v>
+        <v>204.36</v>
       </c>
       <c r="D18" t="n">
-        <v>274.34</v>
+        <v>259.46</v>
       </c>
       <c r="E18" t="n">
-        <v>13.196</v>
+        <v>13.264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>155.8</v>
       </c>
       <c r="D19" t="n">
-        <v>51.66</v>
+        <v>210.4</v>
       </c>
       <c r="E19" t="n">
-        <v>26.024</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>185.22</v>
+        <v>204.68</v>
       </c>
       <c r="D20" t="n">
-        <v>260.12</v>
+        <v>249.26</v>
       </c>
       <c r="E20" t="n">
-        <v>13.688</v>
+        <v>16.064</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>245.4</v>
+        <v>249.26</v>
       </c>
       <c r="D21" t="n">
-        <v>293.76</v>
+        <v>299.06</v>
       </c>
       <c r="E21" t="n">
-        <v>11.804</v>
+        <v>13.204</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>51.66</v>
+        <v>195.64</v>
       </c>
       <c r="D22" t="n">
-        <v>116.3</v>
+        <v>237.34</v>
       </c>
       <c r="E22" t="n">
-        <v>22.16</v>
+        <v>15.756</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>116.3</v>
+        <v>237.34</v>
       </c>
       <c r="D23" t="n">
-        <v>196.42</v>
+        <v>285.36</v>
       </c>
       <c r="E23" t="n">
-        <v>19.248</v>
+        <v>12.584</v>
       </c>
     </row>
     <row r="24">
@@ -884,321 +884,321 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>274.34</v>
+        <v>210.4</v>
       </c>
       <c r="D24" t="n">
-        <v>326.9</v>
+        <v>249.7</v>
       </c>
       <c r="E24" t="n">
-        <v>10.06</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>293.76</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>348.34</v>
+        <v>119.3</v>
       </c>
       <c r="E25" t="n">
-        <v>8.476000000000001</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>260.12</v>
+        <v>285.36</v>
       </c>
       <c r="D26" t="n">
-        <v>311.82</v>
+        <v>330.78</v>
       </c>
       <c r="E26" t="n">
-        <v>10.148</v>
+        <v>9.672000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>326.9</v>
+        <v>128.26</v>
       </c>
       <c r="D27" t="n">
-        <v>363.16</v>
+        <v>179.82</v>
       </c>
       <c r="E27" t="n">
-        <v>7.564</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>311.82</v>
+        <v>119.3</v>
       </c>
       <c r="D28" t="n">
-        <v>340.22</v>
+        <v>174.14</v>
       </c>
       <c r="E28" t="n">
-        <v>7.948</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>125.04</v>
+        <v>249.7</v>
       </c>
       <c r="D29" t="n">
-        <v>183.16</v>
+        <v>324.9</v>
       </c>
       <c r="E29" t="n">
-        <v>19.584</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>130.82</v>
+        <v>299.06</v>
       </c>
       <c r="D30" t="n">
-        <v>218.24</v>
+        <v>363.32</v>
       </c>
       <c r="E30" t="n">
-        <v>19.016</v>
+        <v>10.388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>183.16</v>
+        <v>259.46</v>
       </c>
       <c r="D31" t="n">
-        <v>241.52</v>
+        <v>324.26</v>
       </c>
       <c r="E31" t="n">
-        <v>15.888</v>
+        <v>8.404</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>340.22</v>
+        <v>330.78</v>
       </c>
       <c r="D32" t="n">
-        <v>380.42</v>
+        <v>418.14</v>
       </c>
       <c r="E32" t="n">
-        <v>5.068</v>
+        <v>6.536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>348.34</v>
+        <v>324.26</v>
       </c>
       <c r="D33" t="n">
-        <v>393.24</v>
+        <v>367.46</v>
       </c>
       <c r="E33" t="n">
-        <v>5.616</v>
+        <v>6.204</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>196.42</v>
+        <v>363.32</v>
       </c>
       <c r="D34" t="n">
-        <v>258.08</v>
+        <v>422.4</v>
       </c>
       <c r="E34" t="n">
-        <v>15.712</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>258.08</v>
+        <v>179.82</v>
       </c>
       <c r="D35" t="n">
-        <v>326.98</v>
+        <v>255.38</v>
       </c>
       <c r="E35" t="n">
-        <v>12.912</v>
+        <v>15.412</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>241.52</v>
+        <v>367.46</v>
       </c>
       <c r="D36" t="n">
-        <v>325.32</v>
+        <v>414.54</v>
       </c>
       <c r="E36" t="n">
-        <v>12.108</v>
+        <v>3.136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>363.16</v>
+        <v>174.14</v>
       </c>
       <c r="D37" t="n">
-        <v>430.14</v>
+        <v>240.34</v>
       </c>
       <c r="E37" t="n">
-        <v>4.496</v>
+        <v>14.496</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>326.98</v>
+        <v>240.34</v>
       </c>
       <c r="D38" t="n">
-        <v>382.94</v>
+        <v>304.84</v>
       </c>
       <c r="E38" t="n">
-        <v>9.436</v>
+        <v>11.136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>325.32</v>
+        <v>324.9</v>
       </c>
       <c r="D39" t="n">
-        <v>374.6</v>
+        <v>394.44</v>
       </c>
       <c r="E39" t="n">
-        <v>9.300000000000001</v>
+        <v>7.896</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>382.94</v>
+        <v>255.38</v>
       </c>
       <c r="D40" t="n">
-        <v>444.84</v>
+        <v>332.86</v>
       </c>
       <c r="E40" t="n">
-        <v>5.356</v>
+        <v>12.244</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>374.6</v>
+        <v>304.84</v>
       </c>
       <c r="D41" t="n">
-        <v>446.1</v>
+        <v>353.2</v>
       </c>
       <c r="E41" t="n">
-        <v>5.28</v>
+        <v>7.44</v>
       </c>
     </row>
   </sheetData>
